--- a/data/income_statement/2digits/size/13_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/13_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>13-Manufacture of textiles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>13-Manufacture of textiles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,878 +841,993 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4915005.71478</v>
+        <v>5373465.32014</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5223185.14233</v>
+        <v>5690553.25565</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5760976.70478</v>
+        <v>6181053.28368</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6044324.84575</v>
+        <v>6494334.42972</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8102647.758719999</v>
+        <v>8756604.42385</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8224979.009729999</v>
+        <v>8911175.759919999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8720924.930809999</v>
+        <v>9670409.515880002</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8947438.18713</v>
+        <v>10026985.42751</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9897730.0921</v>
+        <v>10998814.29514</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>22318621.55926</v>
+        <v>23153356.31207</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>23788431.44238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25283487.44163</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>26007117.401</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4204735.512420001</v>
+        <v>4555709.8165</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4514084.19892</v>
+        <v>4908081.117550001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5044689.22976</v>
+        <v>5395327.9452</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5329852.27192</v>
+        <v>5713888.76373</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7044317.38829</v>
+        <v>7546452.09517</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7204984.89196</v>
+        <v>7762133.42308</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7591522.727809999</v>
+        <v>8432316.091840001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7826402.94958</v>
+        <v>8740266.5174</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8543852.608649999</v>
+        <v>9502607.220120002</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>19037591.75469</v>
+        <v>19772037.10861</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>20069668.92057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21441782.46177</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>21981493.815</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>655595.49633</v>
+        <v>746054.39611</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>649751.37741</v>
+        <v>716688.84205</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>642507.27543</v>
+        <v>704681.13111</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>649125.82537</v>
+        <v>703381.61357</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>959590.12807</v>
+        <v>1094686.07437</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>925437.75973</v>
+        <v>1046072.48067</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1010607.14207</v>
+        <v>1106293.79465</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>982369.7760399999</v>
+        <v>1116661.68881</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1203242.05725</v>
+        <v>1321592.95435</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2983328.5795</v>
+        <v>3081208.39482</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3386299.25831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3496457.50406</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3645031.443</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>54674.70603</v>
+        <v>71701.10753000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>59349.566</v>
+        <v>65783.29604999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>73780.19959</v>
+        <v>81044.20736999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>65346.74846</v>
+        <v>77064.05241999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>98740.24236</v>
+        <v>115466.25431</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>94556.35803999999</v>
+        <v>102969.85617</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>118795.06093</v>
+        <v>131799.62939</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>138665.46151</v>
+        <v>170057.2213</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>150635.4262</v>
+        <v>174614.12067</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>297701.22507</v>
+        <v>300110.80864</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>332463.2635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>345247.4758</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>380592.143</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>77317.6798</v>
+        <v>86876.61029000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>78836.17410999999</v>
+        <v>89594.86214999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>83147.64697</v>
+        <v>89015.17035</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>81895.33559</v>
+        <v>90583.14036999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>112979.86393</v>
+        <v>127470.41985</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>122177.29302</v>
+        <v>132519.09511</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>127494.26841</v>
+        <v>157860.41634</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>125844.24288</v>
+        <v>143422.20585</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>124498.53552</v>
+        <v>137951.89834</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>424095.86804</v>
+        <v>438931.85752</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>416048.66428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>443931.72333</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>587807.395</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>60195.21686</v>
+        <v>67695.16656</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>58612.0296</v>
+        <v>68132.40046999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>68763.92421</v>
+        <v>73848.61622999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>64292.82156</v>
+        <v>70530.30959999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>92640.75689</v>
+        <v>104960.89648</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>98641.79659999999</v>
+        <v>107243.12995</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>101261.30811</v>
+        <v>116613.29715</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>103708.64949</v>
+        <v>119061.91876</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>97646.04088</v>
+        <v>108186.03695</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>334786.09081</v>
+        <v>345465.59097</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>338581.7832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>362084.78524</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>484396.159</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>7195.578890000001</v>
+        <v>8595.99057</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>9578.310289999999</v>
+        <v>10526.29388</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5829.10312</v>
+        <v>6220.504650000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>7528.748140000001</v>
+        <v>9689.242749999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>8703.32958</v>
+        <v>10285.95933</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8750.39717</v>
+        <v>9542.461009999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8380.713449999999</v>
+        <v>22764.15316</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6941.240269999999</v>
+        <v>7903.15264</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>11262.58534</v>
+        <v>12617.8948</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>35368.79007</v>
+        <v>36503.35632</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>31408.46419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>32396.00343</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>41008.333</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>9926.884050000001</v>
+        <v>10585.45316</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>10645.83422</v>
+        <v>10936.1678</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>8554.619640000001</v>
+        <v>8946.04947</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>10073.76589</v>
+        <v>10363.58802</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>11635.77746</v>
+        <v>12223.56404</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>14785.09925</v>
+        <v>15733.50415</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>17852.24685</v>
+        <v>18482.96603</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>15194.35312</v>
+        <v>16457.13445</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>15589.9093</v>
+        <v>17147.96659</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>53940.98716</v>
+        <v>56962.91023</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>46058.41689</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>49450.93466</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>62402.903</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4837688.03498</v>
+        <v>5286588.70985</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5144348.96822</v>
+        <v>5600958.3935</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5677829.057809999</v>
+        <v>6092038.113329999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5962429.51016</v>
+        <v>6403751.28935</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7989667.89479</v>
+        <v>8629134.004000001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8102801.71671</v>
+        <v>8778656.66481</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8593430.6624</v>
+        <v>9512549.099539999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8821593.944250001</v>
+        <v>9883563.221659999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9773231.55658</v>
+        <v>10860862.3968</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>21894525.69122</v>
+        <v>22714424.45455</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>23372382.7781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24839555.7183</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>25419310.006</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4257013.101400001</v>
+        <v>4644414.89342</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4541749.356930001</v>
+        <v>4944731.546869999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5023632.097200001</v>
+        <v>5384827.965100001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5218272.24192</v>
+        <v>5611406.95086</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6988786.64212</v>
+        <v>7560397.96694</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7052018.616280001</v>
+        <v>7648700.89206</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7420842.426399999</v>
+        <v>8224850.38436</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7657180.80368</v>
+        <v>8574839.225889999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8474656.70843</v>
+        <v>9424646.412810002</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>19200270.49079</v>
+        <v>19916123.29853</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>20582619.91558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21888250.3743</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>22242755.313</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2827883.86496</v>
+        <v>3143508.83771</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2969893.85899</v>
+        <v>3301037.09083</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3288924.42422</v>
+        <v>3595737.58448</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3260016.98794</v>
+        <v>3568606.80765</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4628841.20771</v>
+        <v>5117606.43932</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4806000.63808</v>
+        <v>5287745.6652</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5028751.18188</v>
+        <v>5654503.102229999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5001729.84304</v>
+        <v>5708542.239360001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5237416.58584</v>
+        <v>5920542.46733</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>13105394.31036</v>
+        <v>13721608.64945</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>14277605.70363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15288621.91527</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>14764302.941</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>988585.7103799998</v>
+        <v>1022497.98987</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1084173.92972</v>
+        <v>1125234.57487</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1210662.41386</v>
+        <v>1243575.32163</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1313851.05671</v>
+        <v>1361334.68093</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1646230.31527</v>
+        <v>1702431.67738</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1499730.90094</v>
+        <v>1562465.79632</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1494600.45176</v>
+        <v>1628056.89426</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1655587.39441</v>
+        <v>1800589.18122</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2148036.13976</v>
+        <v>2323442.92205</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4504207.213149999</v>
+        <v>4578289.88741</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4594435.458370001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4827890.95261</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5652255.286</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>426937.16077</v>
+        <v>456968.68488</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>475596.91823</v>
+        <v>506233.1594300001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>506074.42083</v>
+        <v>527450.9367099999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>630618.4782</v>
+        <v>665252.4570500002</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>696521.0483800001</v>
+        <v>709468.6489199998</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>730684.48063</v>
+        <v>772816.07499</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>869415.0988600001</v>
+        <v>909651.0614300001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>964425.1295800001</v>
+        <v>1021186.17217</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1060036.73153</v>
+        <v>1140837.982</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1491601.8516</v>
+        <v>1512038.79391</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1630739.48148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1680906.70405</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1741402.753</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>13606.36529</v>
+        <v>21439.38096</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>12084.64999</v>
+        <v>12226.72174</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>17970.83829</v>
+        <v>18064.12228</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>13785.71907</v>
+        <v>16213.00523</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>17194.07076</v>
+        <v>30891.20132</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>15602.59663</v>
+        <v>25673.35555</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>28075.6939</v>
+        <v>32639.32644</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>35438.43665</v>
+        <v>44521.63314</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>29167.2513</v>
+        <v>39823.04143</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>99067.11568</v>
+        <v>104185.96776</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>79839.27209999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>90830.80237</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>84794.333</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>580674.93358</v>
+        <v>642173.8164299999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>602599.6112899999</v>
+        <v>656226.84663</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>654196.96061</v>
+        <v>707210.14823</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>744157.26824</v>
+        <v>792344.33849</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1000881.25267</v>
+        <v>1068736.03706</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1050783.10043</v>
+        <v>1129955.77275</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1172588.236</v>
+        <v>1287698.71518</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1164413.14057</v>
+        <v>1308723.99577</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1298574.84815</v>
+        <v>1436215.98399</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2694255.20043</v>
+        <v>2798301.15602</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2789762.86252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2951305.344</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3176554.693</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>411209.94226</v>
+        <v>445412.94724</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>418364.63782</v>
+        <v>459933.94636</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>476937.13479</v>
+        <v>500100.3353</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>515681.60354</v>
+        <v>542222.1661800001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>670838.27154</v>
+        <v>708245.0374800001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>694069.9558400001</v>
+        <v>742858.3125899999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>786438.59286</v>
+        <v>846507.24762</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>817695.60438</v>
+        <v>903886.5462999999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>875391.9771799999</v>
+        <v>956842.0942000001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1534678.62886</v>
+        <v>1538417.40301</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1734688.9117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1781934.57507</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1818048.266</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>393.45734</v>
+        <v>508.22186</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>681.24398</v>
+        <v>935.2349399999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>270.41336</v>
+        <v>539.92803</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1618.96904</v>
+        <v>929.02748</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2482.4158</v>
+        <v>1337.36703</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>961.89249</v>
+        <v>1297.68058</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1701.54859</v>
+        <v>1955.89807</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1606.83635</v>
+        <v>2212.20701</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>477.00159</v>
+        <v>2327.54174</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1347.98057</v>
+        <v>1500.67679</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>12828.68149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12860.11478</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2685.587</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>97256.02089</v>
+        <v>108787.59849</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>96392.41021</v>
+        <v>110955.6589</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>106717.28759</v>
+        <v>114775.27022</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>115076.08576</v>
+        <v>123782.9984</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>164283.87488</v>
+        <v>181224.84197</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>168145.98405</v>
+        <v>183436.71147</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>189942.03953</v>
+        <v>209254.4026</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>188328.24129</v>
+        <v>212880.96826</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>202168.37592</v>
+        <v>223283.74793</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>440861.33212</v>
+        <v>451219.92064</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>477196.07757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>500174.76425</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>484451.916</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>313560.46403</v>
+        <v>336117.12689</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>321290.98363</v>
+        <v>348043.05252</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>369949.43384</v>
+        <v>384785.13705</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>398986.54874</v>
+        <v>417510.1403</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>504071.98086</v>
+        <v>525682.82848</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>524962.0793</v>
+        <v>558123.92054</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>594795.00474</v>
+        <v>635296.94695</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>627760.52674</v>
+        <v>688793.3710299999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>672746.5996699999</v>
+        <v>731230.80453</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1092469.31617</v>
+        <v>1085696.80558</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1244664.15264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1268899.69604</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1330910.763</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>169464.99132</v>
+        <v>196760.86919</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>184234.97347</v>
+        <v>196292.90027</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>177259.82582</v>
+        <v>207109.81293</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>228475.6647</v>
+        <v>250122.17231</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>330042.98113</v>
+        <v>360490.99958</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>356713.14459</v>
+        <v>387097.46016</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>386149.64314</v>
+        <v>441191.46756</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>346717.5361900001</v>
+        <v>404837.4494700001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>423182.87097</v>
+        <v>479373.88979</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1159576.57157</v>
+        <v>1259883.75301</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1055073.95082</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1169370.76893</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1358506.427</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>88591.53406000001</v>
+        <v>145843.63849</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>65805.05985000001</v>
+        <v>101299.61173</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>84150.57945</v>
+        <v>96563.28154</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>54426.97203</v>
+        <v>72052.01468000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>119211.85683</v>
+        <v>137881.39432</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>98976.56962000001</v>
+        <v>150878.10453</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>177400.85794</v>
+        <v>255599.87596</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>141378.42237</v>
+        <v>237895.38179</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>140503.82466</v>
+        <v>222116.22661</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>975241.58594</v>
+        <v>1049457.56354</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>535540.95654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>614080.58264</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>901617.308</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>432.89263</v>
+        <v>1320.08299</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>218.13886</v>
+        <v>427.15773</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>124.76956</v>
+        <v>547.8707000000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>689.25925</v>
+        <v>307.75121</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1281.09602</v>
+        <v>1402.90427</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>643.22729</v>
+        <v>220.82449</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2339.63729</v>
+        <v>696.70934</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>341.52768</v>
+        <v>3177.75997</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>904.1949899999998</v>
+        <v>1630.78498</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2766.75476</v>
+        <v>2683.95102</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2031.42182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1575.98925</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>86.06100000000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>8.241670000000001</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
@@ -1823,7 +1839,7 @@
         <v>151.84298</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>11592.82395</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>1.30421</v>
@@ -1832,583 +1848,658 @@
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>91.6652</v>
+        <v>6262.14767</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>709.9026799999999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>430.17858</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>14486.83378</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>92.339</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>8655.83491</v>
+        <v>9044.265089999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6690.71167</v>
+        <v>6799.43795</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>5956.056570000001</v>
+        <v>7792.02054</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>8500.7145</v>
+        <v>9361.774810000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>10684.75247</v>
+        <v>10358.2775</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>10280.44868</v>
+        <v>13743.98246</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>11614.27264</v>
+        <v>18951.6945</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>10364.34828</v>
+        <v>21662.61092</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>13614.27083</v>
+        <v>26321.93985</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>45343.53651999999</v>
+        <v>42561.88781</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>42006.0239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>46415.2875</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>36824.75</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>844.8761999999999</v>
+        <v>479.45352</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>570.89072</v>
+        <v>715.43351</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>634.9501300000001</v>
+        <v>484.35564</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>548.54052</v>
+        <v>581.8393299999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>804.6248399999999</v>
+        <v>726.57241</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>721.30308</v>
+        <v>791.28914</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>478.44482</v>
+        <v>437.76903</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1380.90307</v>
+        <v>1447.20579</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2625.12869</v>
+        <v>2494.58122</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>7839.98287</v>
+        <v>7618.061</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3142.83971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3136.922</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2013.061</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1039.65731</v>
+        <v>1832.80807</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>811.7191100000001</v>
+        <v>17618.28707</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2201.39475</v>
+        <v>1984.49187</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>812.25606</v>
+        <v>2770.17019</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2859.95997</v>
+        <v>2435.80225</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>5593.3418</v>
+        <v>1018.72736</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1348.67211</v>
+        <v>1391.29348</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1438.65431</v>
+        <v>4000.35593</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1340.19599</v>
+        <v>3022.43199</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4036.10672</v>
+        <v>3048.05959</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>7955.532310000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>7251.50699</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2638.586</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>745.0165</v>
+        <v>982.0907199999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1783.2254</v>
+        <v>527.3076</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1276.94759</v>
+        <v>400.05697</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2185.40011</v>
+        <v>764.6688200000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>953.53264</v>
+        <v>951.2358400000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>473.3898600000001</v>
+        <v>12590.40003</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5298.49169</v>
+        <v>3952.86909</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1336.37276</v>
+        <v>1787.42798</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1959.44579</v>
+        <v>2371.93726</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3265.6236</v>
+        <v>3012.46164</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4826.94899</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4356.87099</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2734.063</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>57633.55408</v>
+        <v>105853.73574</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>40708.47308</v>
+        <v>56181.0095</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>50222.50455</v>
+        <v>61384.34186</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>26780.02423</v>
+        <v>37622.31639</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>72722.73237</v>
+        <v>91108.58783999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>54792.04592999999</v>
+        <v>77355.29252</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>118259.60218</v>
+        <v>183125.70938</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>88013.91787999999</v>
+        <v>141020.95651</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>83188.71318999999</v>
+        <v>132661.87874</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>813142.1265</v>
+        <v>912695.9351400001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>373982.65519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>456233.47274</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>746741.919</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>40.51191</v>
+        <v>41.41273</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>81.4276</v>
+        <v>82.8946</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>80.96027000000001</v>
+        <v>94.45597000000001</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>111.61791</v>
+        <v>216.89264</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>679.42875</v>
+        <v>742.56128</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>155.8776</v>
+        <v>423.92166</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>131.85968</v>
+        <v>301.72092</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>167.20291</v>
+        <v>90.07141</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1484.11437</v>
+        <v>1478.21832</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1353.09024</v>
+        <v>2669.13428</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2839.09331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>3779.04289</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1674.11</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>40.95213</v>
+        <v>39.88258</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>11.5325</v>
+        <v>4.166069999999999</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>72.33602999999999</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>71.09286999999999</v>
+        <v>36.12214</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>73.81983</v>
+        <v>55.23903</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>118.31483</v>
+        <v>43.08336</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>65.99133999999999</v>
+        <v>8.38448</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>153.01946</v>
+        <v>93.88346</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>227.40466</v>
+        <v>33.10411</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>3.84158</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>5.999999999999999e-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1.66112</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>553.991</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>19158.23839</v>
+        <v>26249.90705</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>14920.69924</v>
+        <v>18943.9177</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>23580.66</v>
+        <v>23803.35196</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>14700.775</v>
+        <v>20363.18757</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>29000.06696</v>
+        <v>29948.37092</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>26198.62055</v>
+        <v>33097.75956000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>37862.58198</v>
+        <v>46732.42153</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>38182.47601999999</v>
+        <v>64615.10982000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>35068.69095</v>
+        <v>45839.20247</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>96780.62046999999</v>
+        <v>74454.3288</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>98326.26267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>76842.99537999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>108258.428</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>90543.21303999999</v>
+        <v>135838.08592</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>61713.36137000001</v>
+        <v>92051.86402000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>79411.62832999999</v>
+        <v>97666.93779</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>51695.31548</v>
+        <v>62303.37054</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>174947.5705</v>
+        <v>155220.68002</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>100770.93187</v>
+        <v>130264.30125</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>177420.71551</v>
+        <v>256099.87849</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>135950.0431</v>
+        <v>202491.57251</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>163440.9579</v>
+        <v>191721.4972</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1070197.09514</v>
+        <v>1198625.00441</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>506036.81745</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>648153.1145700001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>896647.115</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1775.18545</v>
+        <v>2130.96879</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2100.52764</v>
+        <v>2200.06739</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2485.92531</v>
+        <v>2545.47926</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1604.4821</v>
+        <v>1669.1873</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2258.54642</v>
+        <v>2406.25271</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1947.99162</v>
+        <v>2381.0878</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2258.76256</v>
+        <v>2766.73324</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3252.37805</v>
+        <v>3442.98003</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4833.435570000001</v>
+        <v>5870.78651</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>14298.7182</v>
+        <v>14512.50354</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11885.76242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>11957.4224</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12131.325</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>15823.36668</v>
+        <v>25879.14174</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9696.572550000001</v>
+        <v>13270.50449</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>13006.24379</v>
+        <v>11709.3153</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>13703.57961</v>
+        <v>16683.36831</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>18899.99161</v>
+        <v>34402.90355</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>19912.00789</v>
+        <v>28269.48591</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>27816.67535</v>
+        <v>30039.69889</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>21846.60083</v>
+        <v>25560.3096</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>22569.22613</v>
+        <v>25377.70216</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>52412.79082000001</v>
+        <v>56487.065</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>51615.48457</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>55238.74545999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>87604.73299999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>712.24701</v>
+        <v>697.18051</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>317.659</v>
+        <v>522.9787200000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>430.44628</v>
+        <v>442.90732</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1088.80411</v>
+        <v>168.1092</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>684.7869199999999</v>
+        <v>237.76976</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>340.54157</v>
+        <v>205.74999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>110.34033</v>
+        <v>21.9683</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>124.53659</v>
+        <v>446.15775</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>717.8816899999999</v>
+        <v>280.26109</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>303.9485</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1481.82396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1470.76357</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>249.395</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>57018.60132</v>
+        <v>86258.99725999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>41677.16677</v>
+        <v>57494.82913999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>50933.27218</v>
+        <v>69467.70835</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>26815.92398</v>
+        <v>33063.18978</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>91646.66022000001</v>
+        <v>105063.10796</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>67254.07406999999</v>
+        <v>88025.74354000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>133531.5344</v>
+        <v>202920.67186</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>98501.4602</v>
+        <v>155414.33921</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>123215.45577</v>
+        <v>147304.35729</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>972815.8316299999</v>
+        <v>1093501.31624</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>396758.02328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>529759.65439</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>761985.339</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1315.79259</v>
+        <v>734.54614</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>112.33264</v>
+        <v>71.45525000000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>726.1995700000001</v>
+        <v>614.9778600000001</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>432.59909</v>
+        <v>577.24458</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>338.27798</v>
+        <v>373.03755</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>129.64779</v>
+        <v>404.7677</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>164.17727</v>
+        <v>516.5166</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>362.92604</v>
+        <v>309.28926</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1596.77455</v>
+        <v>1595.3396</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1399.29054</v>
+        <v>2833.7164</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2374.17556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>3306.2794</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>3752.789</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>1.34335</v>
+        <v>5.33194</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>5.74498</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>104.42667</v>
+        <v>103.47667</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>177.48556</v>
+        <v>111.8709</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>126.97903</v>
+        <v>74.54748000000001</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>9.128909999999999</v>
+        <v>94.74376000000001</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>0.02487</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.00023</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>13896.67664</v>
+        <v>20131.91954</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>7803.35779</v>
+        <v>18486.28405</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>11725.11453</v>
+        <v>12783.07303</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>7872.44103</v>
+        <v>10030.40047</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>60992.32832</v>
+        <v>12663.06101</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>11177.54002</v>
+        <v>10882.72255</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13539.20073</v>
+        <v>19834.26473</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>11859.59156</v>
+        <v>17315.94683</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>10508.18407</v>
+        <v>11293.05043</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>28966.51534</v>
+        <v>30986.45462</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>41921.54743</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>46420.24912000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>30923.522</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>77122.08959999999</v>
+        <v>125247.10068</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>54563.72209999999</v>
+        <v>67447.36359000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>64734.96569</v>
+        <v>91697.18369999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>77040.77528</v>
+        <v>95538.41247</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>121672.83506</v>
+        <v>136766.58134</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>116755.89503</v>
+        <v>166339.00546</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>143121.29191</v>
+        <v>185883.43037</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>144354.09245</v>
+        <v>235479.9846</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>135424.03001</v>
+        <v>224134.3693</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>598232.94857</v>
+        <v>583849.26228</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>504646.08123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>649219.0007999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>427650.102</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>69768.96026000001</v>
+        <v>88183.07406999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>51975.90101</v>
+        <v>62394.14145</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>61140.46373</v>
+        <v>74342.26056</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>73342.02989000001</v>
+        <v>90687.82029999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>107270.86597</v>
+        <v>130794.16248</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>107572.024</v>
+        <v>160875.18132</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>122834.90933</v>
+        <v>177809.30657</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>126715.44635</v>
+        <v>191837.63053</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>129590.6546</v>
+        <v>213762.10583</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>516339.9741</v>
+        <v>556046.5626599999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>484764.96432</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>629386.14374</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>402557.649</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>7353.12934</v>
+        <v>37064.02661</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2587.82109</v>
+        <v>5053.22214</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3594.50196</v>
+        <v>17354.92314</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3698.74539</v>
+        <v>4850.59217</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>14401.96909</v>
+        <v>5972.418860000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>9183.871029999998</v>
+        <v>5463.82414</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>20286.38258</v>
+        <v>8074.123799999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>17638.6461</v>
+        <v>43642.35407</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>5833.375410000001</v>
+        <v>10372.26347</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>81892.97447</v>
+        <v>27802.69962</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>19881.11691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>19832.85706</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>25092.453</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>90391.22274000001</v>
+        <v>81519.32107999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>133762.94985</v>
+        <v>138093.28439</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>117263.81125</v>
+        <v>114308.97298</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>154166.54597</v>
+        <v>164332.40398</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>152634.4324</v>
+        <v>206385.13254</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>238162.88731</v>
+        <v>241372.25798</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>243008.49366</v>
+        <v>254808.03466</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>207791.82301</v>
+        <v>204761.27415</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>264821.70772</v>
+        <v>285634.2499</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>466388.1137999999</v>
+        <v>526867.04986</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>579932.0086800001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>486079.2362</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>935826.518</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>49235.19161000001</v>
+        <v>73195.27537999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>34162.08172</v>
+        <v>41589.38595</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>53103.17781</v>
+        <v>64075.58369</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>47514.20797</v>
+        <v>51096.95965999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>88157.14304</v>
+        <v>64114.48016</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>70224.3456</v>
+        <v>94709.70828000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>67430.08024</v>
+        <v>96771.80022</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>81172.45656000001</v>
+        <v>415662.4693300001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>91653.24978</v>
+        <v>178679.9393</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>209160.17843</v>
+        <v>226748.01773</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>237596.70408</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>256384.03576</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>242197.297</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>604.4742</v>
+        <v>450.5528</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>558.0060100000001</v>
+        <v>1274.70199</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>345.17505</v>
+        <v>249.91375</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>263.27258</v>
+        <v>3426.76075</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>5930.863880000001</v>
+        <v>339.30475</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>382.86959</v>
+        <v>376.95429</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>449.37038</v>
+        <v>507.73346</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3194.32014</v>
+        <v>1745.12488</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>963.5230799999999</v>
+        <v>855.1533000000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2017.06483</v>
+        <v>2022.4432</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>934.50823</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>805.7475700000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1202.829</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>48630.71741</v>
+        <v>72744.72258</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>33604.07571</v>
+        <v>40314.68396</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>52758.00276</v>
+        <v>63825.66994</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>47250.93539</v>
+        <v>47670.19891000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>82226.27915999999</v>
+        <v>63775.17541</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>69841.47600999998</v>
+        <v>94332.75399000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>66980.70986</v>
+        <v>96264.06676</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>77978.13642</v>
+        <v>413917.34445</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>90689.7267</v>
+        <v>177824.786</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>207143.1136</v>
+        <v>224725.57453</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>236662.19585</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>255578.28819</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>240994.468</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>51102.03314</v>
+        <v>77630.86054000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>35756.78944</v>
+        <v>41479.56587000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>168244.81799</v>
+        <v>193475.38365</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>36696.61583</v>
+        <v>38384.78644</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>98443.77193999999</v>
+        <v>53933.63982000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>102377.63317</v>
+        <v>105708.75381</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>50718.54001</v>
+        <v>57552.99273</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>148714.70277</v>
+        <v>421894.55021</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>59179.37209999999</v>
+        <v>75116.65247</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>322325.7295</v>
+        <v>325795.17337</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>139899.83989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>166455.57886</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>421213.537</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4088.63956</v>
+        <v>16864.93595</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>4268.04243</v>
+        <v>5490.34789</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>3348.00739</v>
+        <v>3888.26208</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2907.65728</v>
+        <v>5629.13629</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>3516.60061</v>
+        <v>5159.33225</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2921.29414</v>
+        <v>6382.383859999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2402.68675</v>
+        <v>10063.15445</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6106.398359999999</v>
+        <v>13419.93838</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>3557.27533</v>
+        <v>4242.323219999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>8116.03397</v>
+        <v>14828.87127</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7584.29794</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>15926.05268</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>13883.05</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5273.76943</v>
+        <v>5253.39518</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2216.82665</v>
+        <v>2957.39456</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3485.80947</v>
+        <v>3585.54449</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3261.12533</v>
+        <v>5088.971050000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2300.42916</v>
+        <v>1783.89802</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1316.23089</v>
+        <v>4134.53345</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4677.27404</v>
+        <v>4039.736240000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1096.96875</v>
+        <v>3261.77735</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1782.75834</v>
+        <v>2567.34396</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4905.24049</v>
+        <v>5139.326859999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3756.69344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4423.930189999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7307.794</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>41739.62415</v>
+        <v>55512.52941</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>29271.92036</v>
+        <v>33031.82342</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>161411.00113</v>
+        <v>186001.57708</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>30527.83322</v>
+        <v>27666.6791</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>92626.74216999998</v>
+        <v>46990.40955</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>98140.10814</v>
+        <v>95191.8365</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>43638.57922</v>
+        <v>43450.10204</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>141511.33566</v>
+        <v>405212.83448</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>53839.33843</v>
+        <v>68306.98529</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>309304.45504</v>
+        <v>305826.97524</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>128558.84851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>146105.59599</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>400022.693</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>88524.38121000001</v>
+        <v>77083.73591999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>132168.24213</v>
+        <v>138203.10447</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2122.17107</v>
+        <v>-15090.82698</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>164984.13811</v>
+        <v>177044.5772</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>142347.8035</v>
+        <v>216565.97288</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>206009.59974</v>
+        <v>230373.21245</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>259720.03389</v>
+        <v>294026.84215</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>140249.5768</v>
+        <v>198529.19327</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>297295.5854</v>
+        <v>389197.5367299999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>353222.56273</v>
+        <v>427819.89422</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>677628.87287</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>576007.6930999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>756810.278</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>28133.74134</v>
+        <v>29822.86941</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>32028.03326</v>
+        <v>33844.4708</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>34703.64895</v>
+        <v>37115.80966</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>37303.63528</v>
+        <v>39721.17174</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>49982.02675</v>
+        <v>52737.02653</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>53884.45508</v>
+        <v>55641.99281</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>61726.00654</v>
+        <v>67653.93331000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>59870.24543</v>
+        <v>68211.32118000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>68140.47469</v>
+        <v>74643.92266</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>151126.40814</v>
+        <v>153576.5189</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>158180.81929</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>163655.08398</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>231750.371</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>60390.63987000001</v>
+        <v>47260.86651000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>100140.20887</v>
+        <v>104358.63367</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-32581.47788</v>
+        <v>-52206.63664</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>127680.50283</v>
+        <v>137323.40546</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>92365.77675</v>
+        <v>163828.94635</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>152125.14466</v>
+        <v>174731.21964</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>197994.02735</v>
+        <v>226372.90884</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>80379.33137</v>
+        <v>130317.87209</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>229155.11071</v>
+        <v>314553.61407</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>202096.15459</v>
+        <v>274243.37532</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>519448.0535800001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>412352.60912</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>525059.907</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2690</v>
+        <v>2353</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2660</v>
+        <v>2324</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2694</v>
+        <v>2364</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2703</v>
+        <v>2390</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3013</v>
+        <v>2629</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2959</v>
+        <v>2597</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3073</v>
+        <v>2738</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3148</v>
+        <v>2731</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3297</v>
+        <v>2831</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3005</v>
+        <v>2734</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2733</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>